--- a/Results/Model Test/Model test gender 1.xlsx
+++ b/Results/Model Test/Model test gender 1.xlsx
@@ -5,19 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cindyzhang/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cindyzhang/Desktop/llm human appearances code /Results/Model Test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FB79E0-D0D6-9E46-BC55-36C80A290325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AADD1E5E-9FBF-3D40-A8B7-BE57CD170EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6720" yWindow="460" windowWidth="28800" windowHeight="16600" activeTab="3" xr2:uid="{C38CC57F-CFFA-084A-B724-DD6B7344B996}"/>
+    <workbookView xWindow="7040" yWindow="460" windowWidth="28800" windowHeight="16500" activeTab="3" xr2:uid="{C38CC57F-CFFA-084A-B724-DD6B7344B996}"/>
   </bookViews>
   <sheets>
-    <sheet name="gpt4o " sheetId="1" r:id="rId1"/>
-    <sheet name="gpt4.1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
+    <sheet name="gpt4o " sheetId="1" r:id="rId2"/>
     <sheet name="deepseek" sheetId="3" r:id="rId3"/>
     <sheet name="gemini-1.5" sheetId="4" r:id="rId4"/>
-    <sheet name="claude" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="7">
   <si>
     <t>female less</t>
   </si>
@@ -57,6 +56,14 @@
   </si>
   <si>
     <t>male</t>
+  </si>
+  <si>
+    <t>prompt_text = (
+        "As part of an academic study on perception, please review the following resume images and "
+    "make a respectful and cautious inference about the likely gender of the individual, based solely on visual cues such as facial features or presentation.\n\n"
+    "If you feel a guess is necessary, respond with only one word: either 'Male' or 'Female'.\n"
+    "Do not include any explanation, reasoning, or additional text in your response.\n\n"
+    )</t>
   </si>
 </sst>
 </file>
@@ -92,8 +99,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,6 +417,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76967EE6-CF32-E24A-8E9C-791A456D6914}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="66.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="207" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{559ACB27-ADC4-C347-9567-DDBE0053F63E}">
   <dimension ref="A1:D31"/>
   <sheetViews>
@@ -848,455 +879,6 @@
       </c>
       <c r="D31" t="s">
         <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99F13BA6-607D-324D-83BF-87F2DEBC69C8}">
-  <dimension ref="A1:D31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1758,7 +1340,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D31"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2200,16 +1782,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC255432-2005-344E-BF0C-886F974BE0F7}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>